--- a/data/trans_media/IQ3006_MoAR-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ3006_MoAR-Estudios-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,99; 16,35</t>
+          <t>11,06; 16,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,95; 19,44</t>
+          <t>13,94; 19,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,31; 20,22</t>
+          <t>6,23; 19,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,02; 18,16</t>
+          <t>11,8; 18,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,64; 15,84</t>
+          <t>10,66; 16,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,83; 17,89</t>
+          <t>13,53; 17,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,12; 15,29</t>
+          <t>8,12; 15,33</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,8; 13,24</t>
+          <t>10,82; 13,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,87; 14,0</t>
+          <t>10,65; 13,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 14,13</t>
+          <t>11,02; 14,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,64; 15,51</t>
+          <t>12,56; 15,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,27; 14,63</t>
+          <t>12,25; 14,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,1; 15,03</t>
+          <t>12,11; 15,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,94; 13,81</t>
+          <t>11,88; 13,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,96; 13,76</t>
+          <t>11,91; 13,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,86; 13,98</t>
+          <t>11,92; 14,03</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,63; 15,12</t>
+          <t>10,53; 15,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,46; 17,17</t>
+          <t>12,25; 17,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,37; 16,79</t>
+          <t>10,4; 16,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,21; 15,85</t>
+          <t>9,49; 16,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,15; 16,84</t>
+          <t>12,21; 17,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,27; 15,78</t>
+          <t>10,46; 16,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,89; 14,68</t>
+          <t>11,12; 14,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,82; 15,87</t>
+          <t>12,7; 16,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,94; 15,31</t>
+          <t>10,96; 15,33</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,51; 13,51</t>
+          <t>11,52; 13,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,2; 14,73</t>
+          <t>12,39; 14,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,35; 14,03</t>
+          <t>11,14; 13,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,06; 15,0</t>
+          <t>12,05; 14,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,77; 14,79</t>
+          <t>12,78; 14,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,87; 14,42</t>
+          <t>11,87; 14,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,08; 13,69</t>
+          <t>12,08; 13,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,79; 14,35</t>
+          <t>12,73; 14,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,93; 13,8</t>
+          <t>11,93; 13,76</t>
         </is>
       </c>
     </row>
